--- a/Data/NormalizedMasterData.xlsx
+++ b/Data/NormalizedMasterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="2600" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="NormalizedMasterData.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>County</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Population 2011</t>
   </si>
   <si>
-    <t>Humber of households</t>
-  </si>
-  <si>
     <t>Crime Overall</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>Remoteness</t>
+  </si>
+  <si>
+    <t>Number of households</t>
   </si>
 </sst>
 </file>
@@ -638,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -650,12 +650,14 @@
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="8" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,16 +671,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -690,15 +692,12 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
       <c r="B2">
         <v>0.14164650200935899</v>
@@ -719,27 +718,24 @@
         <v>0.39631564860249402</v>
       </c>
       <c r="H2">
-        <v>-1.06617876922166E-3</v>
-      </c>
-      <c r="I2">
         <v>0.13556725716547499</v>
       </c>
-      <c r="J2" s="1">
+      <c r="I2" s="1">
         <v>0.91959170233783405</v>
       </c>
-      <c r="K2">
+      <c r="J2">
         <v>0.42653912190336002</v>
       </c>
-      <c r="L2" s="1">
+      <c r="K2" s="1">
         <v>0.94194907141489603</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <v>0.121142572893434</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2.6468111415505601E-2</v>
@@ -760,27 +756,24 @@
         <v>0.26796493314898201</v>
       </c>
       <c r="H3">
-        <v>-3.5341463912892499E-3</v>
-      </c>
-      <c r="I3">
         <v>1.7435058616172901E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="I3" s="1">
         <v>0.25452749423773502</v>
       </c>
-      <c r="K3">
+      <c r="J3">
         <v>0.15844984056904601</v>
       </c>
-      <c r="L3" s="1">
+      <c r="K3" s="1">
         <v>0.25226881102814502</v>
       </c>
-      <c r="M3">
+      <c r="L3">
         <v>3.1001517283792201E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -801,27 +794,24 @@
         <v>0.63333526982673205</v>
       </c>
       <c r="H4">
-        <v>3.4913084945561398E-3</v>
-      </c>
-      <c r="I4">
         <v>0.52612087986582001</v>
       </c>
-      <c r="J4" s="1">
+      <c r="I4" s="1">
         <v>0.49479749753045799</v>
       </c>
-      <c r="K4">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="L4" s="1">
+      <c r="K4" s="1">
         <v>0.268887612483247</v>
       </c>
-      <c r="M4">
+      <c r="L4">
         <v>0.90641992527580795</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>7.18359254245238E-2</v>
@@ -842,27 +832,24 @@
         <v>0.104738136404356</v>
       </c>
       <c r="H5">
-        <v>-6.6727221911682504E-3</v>
-      </c>
-      <c r="I5">
         <v>8.7366634812824098E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="I5" s="1">
         <v>0.75274942377346099</v>
       </c>
-      <c r="K5">
+      <c r="J5">
         <v>0.252391464311994</v>
       </c>
-      <c r="L5" s="1">
+      <c r="K5" s="1">
         <v>0.80225923798583199</v>
       </c>
-      <c r="M5">
+      <c r="L5">
         <v>7.1404105248832103E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>3.46334651586701E-2</v>
@@ -883,27 +870,24 @@
         <v>0.180875835747284</v>
       </c>
       <c r="H6">
-        <v>-5.2087227414330198E-3</v>
-      </c>
-      <c r="I6">
         <v>3.2802533145854899E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="I6" s="1">
         <v>0.54899571945999404</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <v>0.223325974981604</v>
       </c>
-      <c r="L6" s="1">
+      <c r="K6" s="1">
         <v>0.57442083094007301</v>
       </c>
-      <c r="M6">
+      <c r="L6">
         <v>2.8901316631004301E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>5.7391990278325603E-2</v>
@@ -924,27 +908,24 @@
         <v>0.28338620247802498</v>
       </c>
       <c r="H7">
-        <v>-3.2376214108029099E-3</v>
+        <v>3.1908147221608701E-2</v>
       </c>
       <c r="I7">
-        <v>3.1908147221608701E-2</v>
+        <v>0.42887718142904202</v>
       </c>
       <c r="J7">
-        <v>0.42887718142904202</v>
-      </c>
-      <c r="K7">
         <v>0.18064753495217101</v>
       </c>
-      <c r="L7" s="1">
+      <c r="K7" s="1">
         <v>0.44805667241049202</v>
       </c>
-      <c r="M7">
+      <c r="L7">
         <v>6.7195311331881197E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>3.68613488823272E-2</v>
@@ -965,27 +946,24 @@
         <v>0.28009692782505802</v>
       </c>
       <c r="H8">
-        <v>-3.3008686105939298E-3</v>
-      </c>
-      <c r="I8">
         <v>5.68361480613256E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="I8" s="1">
         <v>0.65594336516299001</v>
       </c>
-      <c r="K8">
+      <c r="J8">
         <v>0.22467500613196001</v>
       </c>
-      <c r="L8" s="1">
+      <c r="K8" s="1">
         <v>0.69837258280681602</v>
       </c>
-      <c r="M8">
+      <c r="L8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>6.2700536184455993E-2</v>
@@ -1006,27 +984,24 @@
         <v>0.45761865535496599</v>
       </c>
       <c r="H9">
-        <v>1.12574580659687E-4</v>
-      </c>
-      <c r="I9">
         <v>3.6300260006079201E-2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="I9" s="1">
         <v>0.47458017780704698</v>
       </c>
-      <c r="K9">
+      <c r="J9">
         <v>0.21940152072602401</v>
       </c>
-      <c r="L9" s="1">
+      <c r="K9" s="1">
         <v>0.48910587784797999</v>
       </c>
-      <c r="M9">
+      <c r="L9">
         <v>5.1338854480256699E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>4.7553058809734497E-2</v>
@@ -1047,27 +1022,24 @@
         <v>0.16487921189360499</v>
       </c>
       <c r="H10">
-        <v>-5.51631081831891E-3</v>
-      </c>
-      <c r="I10">
         <v>1.98711122093519E-2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="I10" s="1">
         <v>0.33105037866315401</v>
       </c>
-      <c r="K10">
+      <c r="J10">
         <v>6.5979887171940102E-2</v>
       </c>
-      <c r="L10" s="1">
+      <c r="K10" s="1">
         <v>0.370055523645415</v>
       </c>
-      <c r="M10">
+      <c r="L10">
         <v>8.4504815324813506E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>5.4204730788500299E-2</v>
@@ -1088,27 +1060,24 @@
         <v>0.32640562163328302</v>
       </c>
       <c r="H11">
-        <v>-2.4104305905554898E-3</v>
-      </c>
-      <c r="I11">
         <v>3.2057940463200103E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="I11" s="1">
         <v>0.43266381297332901</v>
       </c>
+      <c r="J11">
+        <v>6.5489330389992606E-2</v>
+      </c>
       <c r="K11">
-        <v>6.5489330389992606E-2</v>
+        <v>0.48845491097070698</v>
       </c>
       <c r="L11">
-        <v>0.48845491097070698</v>
-      </c>
-      <c r="M11">
         <v>2.48886166132319E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>0.152103697860592</v>
@@ -1129,27 +1098,24 @@
         <v>6.3901080104923305E-2</v>
       </c>
       <c r="H12">
-        <v>-7.4579498571881904E-3</v>
-      </c>
-      <c r="I12">
         <v>2.58519080597511E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="I12" s="1">
         <v>0.30230490615739197</v>
       </c>
-      <c r="K12">
+      <c r="J12">
         <v>0.11111111111111099</v>
       </c>
-      <c r="L12" s="1">
+      <c r="K12" s="1">
         <v>0.32257323377369301</v>
       </c>
-      <c r="M12">
+      <c r="L12">
         <v>0.140398851958288</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>4.8000767500612898E-2</v>
@@ -1170,27 +1136,24 @@
         <v>0.492885169879826</v>
       </c>
       <c r="H13">
-        <v>7.9069013056524203E-4</v>
-      </c>
-      <c r="I13">
         <v>1.7941294169872099E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="I13" s="1">
         <v>0.42851498189002302</v>
       </c>
-      <c r="K13">
+      <c r="J13">
         <v>0.10166789305862201</v>
       </c>
-      <c r="L13" s="1">
+      <c r="K13" s="1">
         <v>0.47229561554662097</v>
       </c>
-      <c r="M13">
+      <c r="L13">
         <v>8.1116858502411598E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>5.70615386255343E-2</v>
@@ -1211,27 +1174,24 @@
         <v>0.14304828977151299</v>
       </c>
       <c r="H14">
-        <v>-5.9360826035156702E-3</v>
-      </c>
-      <c r="I14">
         <v>1.9282873056241299E-2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="I14" s="1">
         <v>0.25903852486005902</v>
       </c>
-      <c r="K14">
+      <c r="J14">
         <v>0.10350748099092499</v>
       </c>
-      <c r="L14" s="1">
+      <c r="K14" s="1">
         <v>0.27463143787095501</v>
       </c>
-      <c r="M14">
+      <c r="L14">
         <v>0.110498376241873</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0.14995043225208099</v>
@@ -1252,27 +1212,24 @@
         <v>0.49717873006734598</v>
       </c>
       <c r="H15">
-        <v>8.7324804610749702E-4</v>
-      </c>
-      <c r="I15">
         <v>0.11557368624766801</v>
       </c>
-      <c r="J15" s="1">
+      <c r="I15" s="1">
         <v>0.329963780046098</v>
       </c>
-      <c r="K15">
+      <c r="J15">
         <v>0.232646553838607</v>
       </c>
-      <c r="L15" s="1">
+      <c r="K15" s="1">
         <v>0.316829408385985</v>
       </c>
-      <c r="M15">
+      <c r="L15">
         <v>0.202513353103938</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>9.3837609661979904E-2</v>
@@ -1293,27 +1250,24 @@
         <v>0.41083802830958499</v>
       </c>
       <c r="H16">
-        <v>-7.8693791897913598E-4</v>
-      </c>
-      <c r="I16">
         <v>0.41647113363962601</v>
       </c>
-      <c r="J16" s="1">
+      <c r="I16" s="1">
         <v>0.88574250905498897</v>
       </c>
-      <c r="K16">
+      <c r="J16">
         <v>0.55383860681873898</v>
       </c>
-      <c r="L16" s="1">
+      <c r="K16" s="1">
         <v>0.86279915757227599</v>
       </c>
-      <c r="M16">
+      <c r="L16">
         <v>2.4305294887360402E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>7.2646064960399104E-2</v>
@@ -1334,27 +1288,24 @@
         <v>0.27318795207139202</v>
       </c>
       <c r="H17">
-        <v>-3.4337165530572799E-3</v>
-      </c>
-      <c r="I17">
         <v>1.53073385567804E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="I17" s="1">
         <v>0.166842278564373</v>
       </c>
-      <c r="K17">
+      <c r="J17">
         <v>5.97252882021094E-2</v>
       </c>
-      <c r="L17" s="1">
+      <c r="K17" s="1">
         <v>0.18112196055906599</v>
       </c>
-      <c r="M17">
+      <c r="L17">
         <v>2.42210755531591E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>2.379251900097E-2</v>
@@ -1375,27 +1326,24 @@
         <v>0.393317142007923</v>
       </c>
       <c r="H18">
-        <v>-1.12383499002112E-3</v>
-      </c>
-      <c r="I18">
         <v>1.8360059217532601E-2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="I18" s="1">
         <v>0.31294040171221599</v>
       </c>
-      <c r="K18">
+      <c r="J18">
         <v>7.4319352465047797E-2</v>
       </c>
-      <c r="L18" s="1">
+      <c r="K18" s="1">
         <v>0.346429255217308</v>
       </c>
-      <c r="M18">
+      <c r="L18">
         <v>6.7588312980002103E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>5.9396019656543501E-2</v>
@@ -1416,27 +1364,24 @@
         <v>0.17893798251787099</v>
       </c>
       <c r="H19">
-        <v>-5.2459843882388998E-3</v>
+        <v>2.2186893856727698E-2</v>
       </c>
       <c r="I19">
-        <v>2.2186893856727698E-2</v>
+        <v>0.71139282186368102</v>
       </c>
       <c r="J19">
-        <v>0.71139282186368102</v>
-      </c>
-      <c r="K19">
         <v>0.21106205543291601</v>
       </c>
-      <c r="L19" s="1">
+      <c r="K19" s="1">
         <v>0.76706873444380597</v>
       </c>
-      <c r="M19">
+      <c r="L19">
         <v>8.5134139923040905E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>7.19318630011406E-2</v>
@@ -1457,27 +1402,24 @@
         <v>0.37645480649059299</v>
       </c>
       <c r="H20">
-        <v>-1.4480692410119801E-3</v>
-      </c>
-      <c r="I20">
         <v>2.3470523532846298E-2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="I20" s="1">
         <v>0.535067500823181</v>
       </c>
-      <c r="K20">
+      <c r="J20">
         <v>0.164213882756929</v>
       </c>
-      <c r="L20" s="1">
+      <c r="K20" s="1">
         <v>0.57664177675665296</v>
       </c>
-      <c r="M20">
+      <c r="L20">
         <v>5.0029717017441702E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>6.2743175107396798E-2</v>
@@ -1498,27 +1440,24 @@
         <v>0.23383545254004401</v>
       </c>
       <c r="H21">
-        <v>-4.1903986981285599E-3</v>
-      </c>
-      <c r="I21">
         <v>1.920086945683E-2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="I21" s="1">
         <v>0.24497859729996699</v>
       </c>
-      <c r="K21">
+      <c r="J21">
         <v>0.166298749080206</v>
       </c>
-      <c r="L21" s="1">
+      <c r="K21" s="1">
         <v>0.23867509094390199</v>
       </c>
-      <c r="M21">
+      <c r="L21">
         <v>0.14814642061178299</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0.13207406380914799</v>
@@ -1539,27 +1478,24 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>-8.6866597724922501E-3</v>
-      </c>
-      <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="1">
+      <c r="I22" s="1">
         <v>4.2937108989134103E-2</v>
       </c>
+      <c r="J22">
+        <v>3.5197449104733901E-2</v>
+      </c>
       <c r="K22">
-        <v>3.5197449104733901E-2</v>
+        <v>4.4648669347118503E-2</v>
       </c>
       <c r="L22">
-        <v>4.4648669347118503E-2</v>
-      </c>
-      <c r="M22">
         <v>4.9176665049818297E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>4.6188613275628697E-2</v>
@@ -1580,27 +1516,24 @@
         <v>0.192863996948475</v>
       </c>
       <c r="H23">
-        <v>-4.9782106356911302E-3</v>
-      </c>
-      <c r="I23">
         <v>2.6308941453803501E-2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="I23" s="1">
         <v>0.41550872571616698</v>
       </c>
-      <c r="K23">
+      <c r="J23">
         <v>0.26342899190581298</v>
       </c>
-      <c r="L23" s="1">
+      <c r="K23" s="1">
         <v>0.40662454528049002</v>
       </c>
-      <c r="M23">
+      <c r="L23">
         <v>6.9878558205656499E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>4.5282536163136503E-2</v>
@@ -1621,27 +1554,24 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1.0541652382584799E-2</v>
-      </c>
-      <c r="I24">
         <v>4.5035283415373398E-2</v>
       </c>
-      <c r="J24" s="1">
+      <c r="I24" s="1">
         <v>0.36394468225222298</v>
       </c>
-      <c r="K24">
+      <c r="J24">
         <v>0.158817758155507</v>
       </c>
-      <c r="L24" s="1">
+      <c r="K24" s="1">
         <v>0.37936052077350202</v>
       </c>
-      <c r="M24">
+      <c r="L24">
         <v>2.6129559207794702E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>6.4278176333265796E-2</v>
@@ -1662,27 +1592,24 @@
         <v>0.95202826457381995</v>
       </c>
       <c r="H25">
-        <v>9.6192368791894797E-3</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0.42624300296345102</v>
       </c>
       <c r="J25">
-        <v>0.42624300296345102</v>
-      </c>
-      <c r="K25">
         <v>0.72774098601913195</v>
       </c>
-      <c r="L25" s="1">
+      <c r="K25" s="1">
         <v>0.27417193183993899</v>
       </c>
-      <c r="M25">
+      <c r="L25">
         <v>0.83180648600699103</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>3.6189785846009501E-2</v>
@@ -1703,27 +1630,24 @@
         <v>0.39611321555318202</v>
       </c>
       <c r="H26">
-        <v>-1.0700712150843101E-3</v>
-      </c>
-      <c r="I26">
         <v>9.0225826978965508E-3</v>
       </c>
-      <c r="J26" s="1">
+      <c r="I26" s="1">
         <v>0.276720447810339</v>
       </c>
-      <c r="K26">
+      <c r="J26">
         <v>5.2489575668383602E-2</v>
       </c>
-      <c r="L26" s="1">
+      <c r="K26" s="1">
         <v>0.31112387516752799</v>
       </c>
-      <c r="M26">
+      <c r="L26">
         <v>4.3348038770356999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>5.7008239971858297E-2</v>
@@ -1744,27 +1668,24 @@
         <v>0.22972767211964601</v>
       </c>
       <c r="H27">
-        <v>-4.2693843823164903E-3</v>
-      </c>
-      <c r="I27">
         <v>2.4215116215501101E-2</v>
       </c>
-      <c r="J27" s="1">
+      <c r="I27" s="1">
         <v>0.30121830754033602</v>
       </c>
-      <c r="K27">
+      <c r="J27">
         <v>2.6490066225165601E-2</v>
       </c>
-      <c r="L27" s="1">
+      <c r="K27" s="1">
         <v>0.34773118897185501</v>
       </c>
-      <c r="M27">
+      <c r="L27">
         <v>5.4297678418205597E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>7.18039462323182E-2</v>
@@ -1785,27 +1706,24 @@
         <v>0.38167993578368598</v>
       </c>
       <c r="H28">
-        <v>-1.3475988239137499E-3</v>
-      </c>
-      <c r="I28">
         <v>2.7872476749246099E-2</v>
       </c>
-      <c r="J28" s="1">
+      <c r="I28" s="1">
         <v>0.26881791241356601</v>
       </c>
-      <c r="K28">
+      <c r="J28">
         <v>2.03581064508217E-2</v>
       </c>
-      <c r="L28" s="1">
+      <c r="K28" s="1">
         <v>0.31196630289105898</v>
       </c>
-      <c r="M28">
+      <c r="L28">
         <v>8.0045309383969296E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>0.10045730244854</v>
@@ -1826,27 +1744,24 @@
         <v>0.52090740586051298</v>
       </c>
       <c r="H29">
-        <v>1.3295104312851299E-3</v>
-      </c>
-      <c r="I29">
         <v>0.32600257600640298</v>
       </c>
-      <c r="J29" s="1">
+      <c r="I29" s="1">
         <v>0.86885083964438603</v>
       </c>
-      <c r="K29">
+      <c r="J29">
         <v>0.41071866568555299</v>
       </c>
-      <c r="L29" s="1">
+      <c r="K29" s="1">
         <v>0.88788052843193599</v>
       </c>
-      <c r="M29">
+      <c r="L29">
         <v>2.13864478233994E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>5.08682350683822E-2</v>
@@ -1867,27 +1782,24 @@
         <v>9.5809277736552803E-2</v>
       </c>
       <c r="H30">
-        <v>-6.8444090728213298E-3</v>
-      </c>
-      <c r="I30">
         <v>1.9691797671972499E-2</v>
       </c>
-      <c r="J30" s="1">
+      <c r="I30" s="1">
         <v>0.48633519920974599</v>
       </c>
-      <c r="K30">
+      <c r="J30">
         <v>0.11761098847191601</v>
       </c>
-      <c r="L30" s="1">
+      <c r="K30" s="1">
         <v>0.53455868274937801</v>
       </c>
-      <c r="M30">
+      <c r="L30">
         <v>9.8566545763233801E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>0.25382950826662098</v>
@@ -1908,27 +1820,24 @@
         <v>0.58373588380335795</v>
       </c>
       <c r="H31">
-        <v>2.5375960173985301E-3</v>
-      </c>
-      <c r="I31">
         <v>0.48793891059858302</v>
       </c>
-      <c r="J31" s="1">
+      <c r="I31" s="1">
         <v>0.18547909120842901</v>
       </c>
-      <c r="K31">
+      <c r="J31">
         <v>0.14716703458425301</v>
       </c>
-      <c r="L31" s="1">
+      <c r="K31" s="1">
         <v>0.17545471950986</v>
       </c>
-      <c r="M31">
+      <c r="L31">
         <v>0.55461834126762899</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1949,27 +1858,24 @@
         <v>0.92570994095620696</v>
       </c>
       <c r="H32">
-        <v>9.1131799372716898E-3</v>
+        <v>0.83270172338764503</v>
       </c>
       <c r="I32">
-        <v>0.83270172338764503</v>
+        <v>0.73180770497201197</v>
       </c>
       <c r="J32">
-        <v>0.73180770497201197</v>
-      </c>
-      <c r="K32">
         <v>0.60264900662251697</v>
       </c>
-      <c r="L32" s="1">
+      <c r="K32" s="1">
         <v>0.66858127512923604</v>
       </c>
-      <c r="M32">
+      <c r="L32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>7.0876549658355603E-2</v>
@@ -1990,27 +1896,24 @@
         <v>0.32423436569436798</v>
       </c>
       <c r="H33">
-        <v>-2.4521801775175302E-3</v>
-      </c>
-      <c r="I33">
         <v>9.6539010752311999E-2</v>
       </c>
-      <c r="J33" s="1">
+      <c r="I33" s="1">
         <v>0.79944023707606204</v>
       </c>
-      <c r="K33">
+      <c r="J33">
         <v>0.41452048074564601</v>
       </c>
-      <c r="L33" s="1">
+      <c r="K33" s="1">
         <v>0.80597357840321704</v>
       </c>
-      <c r="M33">
+      <c r="L33">
         <v>2.8822577883670399E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>6.2711195915191198E-2</v>
@@ -2031,27 +1934,24 @@
         <v>0.32267187641412598</v>
       </c>
       <c r="H34">
-        <v>-2.4822242091369698E-3</v>
+        <v>9.9241849388909203E-2</v>
       </c>
       <c r="I34">
-        <v>9.9241849388909203E-2</v>
+        <v>0.58561080013170896</v>
       </c>
       <c r="J34">
-        <v>0.58561080013170896</v>
+        <v>0.247608535688006</v>
       </c>
       <c r="K34">
-        <v>0.247608535688006</v>
+        <v>0.60945816580509304</v>
       </c>
       <c r="L34">
-        <v>0.60945816580509304</v>
-      </c>
-      <c r="M34">
         <v>6.2188023628070403E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0.10086237221647799</v>
@@ -2072,27 +1972,24 @@
         <v>0.419152260083344</v>
       </c>
       <c r="H35">
-        <v>-6.2706927510363796E-4</v>
-      </c>
-      <c r="I35">
         <v>0.202739138896603</v>
       </c>
-      <c r="J35" s="1">
+      <c r="I35" s="1">
         <v>0.64063220283174205</v>
       </c>
-      <c r="K35">
+      <c r="J35">
         <v>0.372455236693647</v>
       </c>
-      <c r="L35" s="1">
+      <c r="K35" s="1">
         <v>0.63446295232624905</v>
       </c>
-      <c r="M35">
+      <c r="L35">
         <v>5.3446981539497299E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>0.121254437112919</v>
@@ -2113,27 +2010,24 @@
         <v>0.65864554312978496</v>
       </c>
       <c r="H36">
-        <v>3.9779823303575596E-3</v>
-      </c>
-      <c r="I36">
         <v>4.4562942682764201E-2</v>
       </c>
-      <c r="J36" s="1">
+      <c r="I36" s="1">
         <v>0.31294040171221599</v>
       </c>
+      <c r="J36">
+        <v>8.3026735344616201E-2</v>
+      </c>
       <c r="K36">
-        <v>8.3026735344616201E-2</v>
+        <v>0.34371051120045998</v>
       </c>
       <c r="L36">
-        <v>0.34371051120045998</v>
-      </c>
-      <c r="M36">
         <v>5.8128915976075397E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0.121190478728507</v>
@@ -2154,27 +2048,24 @@
         <v>0.63567674186671197</v>
       </c>
       <c r="H37">
-        <v>3.5363310498432599E-3</v>
-      </c>
-      <c r="I37">
         <v>0.135210814853367</v>
       </c>
-      <c r="J37" s="1">
+      <c r="I37" s="1">
         <v>0.47316430688179101</v>
       </c>
+      <c r="J37">
+        <v>0.25177826833456002</v>
+      </c>
       <c r="K37">
-        <v>0.25177826833456002</v>
+        <v>0.47735018188780398</v>
       </c>
       <c r="L37">
-        <v>0.47735018188780398</v>
-      </c>
-      <c r="M37">
         <v>0.25415535072241002</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>3.45055483898477E-2</v>
@@ -2195,27 +2086,24 @@
         <v>0.161766406514122</v>
       </c>
       <c r="H38">
-        <v>-5.5761648118336001E-3</v>
-      </c>
-      <c r="I38">
         <v>1.5150985027236099E-2</v>
       </c>
-      <c r="J38" s="1">
+      <c r="I38" s="1">
         <v>0.53233454066512997</v>
       </c>
-      <c r="K38">
+      <c r="J38">
         <v>0.16764778023056201</v>
       </c>
-      <c r="L38" s="1">
+      <c r="K38" s="1">
         <v>0.57242963813900105</v>
       </c>
-      <c r="M38">
+      <c r="L38">
         <v>4.0358044226751003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>4.2948055132127398E-2</v>
@@ -2236,27 +2124,24 @@
         <v>0.478157722760922</v>
       </c>
       <c r="H39">
-        <v>5.0750618011558099E-4</v>
-      </c>
-      <c r="I39">
         <v>4.82596649442266E-2</v>
       </c>
-      <c r="J39" s="1">
+      <c r="I39" s="1">
         <v>0.59064866644715197</v>
       </c>
-      <c r="K39">
+      <c r="J39">
         <v>0.126808928133431</v>
       </c>
-      <c r="L39" s="1">
+      <c r="K39" s="1">
         <v>0.65299636224392099</v>
       </c>
-      <c r="M39">
+      <c r="L39">
         <v>5.7028145094110298E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>5.6784385626419097E-2</v>
@@ -2277,27 +2162,24 @@
         <v>0.19267938930336201</v>
       </c>
       <c r="H40">
-        <v>-4.98176032911759E-3</v>
+        <v>2.4445819675178299E-2</v>
       </c>
       <c r="I40">
-        <v>2.4445819675178299E-2</v>
+        <v>0.30704642739545601</v>
       </c>
       <c r="J40">
-        <v>0.30704642739545601</v>
-      </c>
-      <c r="K40">
         <v>0.189232278636252</v>
       </c>
-      <c r="L40" s="1">
+      <c r="K40" s="1">
         <v>0.30369519433275899</v>
       </c>
-      <c r="M40">
+      <c r="L40">
         <v>9.0339852838632301E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>0.216818923154001</v>
@@ -2318,27 +2200,24 @@
         <v>0.56389452340157997</v>
       </c>
       <c r="H41">
-        <v>2.1560801460117499E-3</v>
+        <v>3.5839946468050297E-2</v>
       </c>
       <c r="I41">
-        <v>3.5839946468050297E-2</v>
+        <v>0</v>
       </c>
       <c r="J41">
+        <v>1.8273240127544801E-2</v>
+      </c>
+      <c r="K41">
         <v>0</v>
       </c>
-      <c r="K41">
-        <v>1.8273240127544801E-2</v>
-      </c>
       <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
         <v>0.33080959088386802</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>8.5043331805438604E-2</v>
@@ -2359,27 +2238,24 @@
         <v>0.77659967030031696</v>
       </c>
       <c r="H42">
-        <v>6.2460411075722002E-3</v>
-      </c>
-      <c r="I42">
         <v>0.85049213093460097</v>
       </c>
-      <c r="J42" s="1">
+      <c r="I42" s="1">
         <v>0.245702996378005</v>
       </c>
-      <c r="K42">
+      <c r="J42">
         <v>0.45401030169242101</v>
       </c>
-      <c r="L42" s="1">
+      <c r="K42" s="1">
         <v>0.14968408960367599</v>
       </c>
-      <c r="M42">
+      <c r="L42">
         <v>0.88862409742621296</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>0.10533945912526201</v>
@@ -2400,27 +2276,24 @@
         <v>0.428934786755998</v>
       </c>
       <c r="H43">
-        <v>-4.3896779857649E-4</v>
-      </c>
-      <c r="I43">
         <v>6.8270729963240503E-2</v>
       </c>
-      <c r="J43" s="1">
+      <c r="I43" s="1">
         <v>0.72034902864669104</v>
       </c>
-      <c r="K43">
+      <c r="J43">
         <v>0.36804022565611999</v>
       </c>
-      <c r="L43" s="1">
+      <c r="K43" s="1">
         <v>0.72850852000765798</v>
       </c>
-      <c r="M43">
+      <c r="L43">
         <v>0.104507860968391</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>0.14143330739465501</v>
@@ -2441,27 +2314,24 @@
         <v>0.57075842507149999</v>
       </c>
       <c r="H44">
-        <v>2.28806138992273E-3</v>
+        <v>0.178498874910616</v>
       </c>
       <c r="I44">
-        <v>0.178498874910616</v>
+        <v>0.14767863022719799</v>
       </c>
       <c r="J44">
-        <v>0.14767863022719799</v>
-      </c>
-      <c r="K44">
         <v>0.27274957076281597</v>
       </c>
-      <c r="L44" s="1">
+      <c r="K44" s="1">
         <v>9.2284127895845405E-2</v>
       </c>
-      <c r="M44">
+      <c r="L44">
         <v>0.59328634092856003</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0.17832663546918801</v>
@@ -2482,27 +2352,24 @@
         <v>0.89075522627940995</v>
       </c>
       <c r="H45">
-        <v>8.4410597721745802E-3</v>
-      </c>
-      <c r="I45">
         <v>0.10603612094546901</v>
       </c>
-      <c r="J45" s="1">
+      <c r="I45" s="1">
         <v>0.21379650971353301</v>
       </c>
-      <c r="K45">
+      <c r="J45">
         <v>0.122761834682365</v>
       </c>
-      <c r="L45" s="1">
+      <c r="K45" s="1">
         <v>0.21600612674708</v>
       </c>
-      <c r="M45">
+      <c r="L45">
         <v>0.48494632546468203</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>0.15574932577203099</v>
@@ -2523,27 +2390,24 @@
         <v>0.34627953288943097</v>
       </c>
       <c r="H46">
-        <v>-2.02828882117998E-3</v>
-      </c>
-      <c r="I46">
         <v>9.4067968956717402E-2</v>
       </c>
-      <c r="J46" s="1">
+      <c r="I46" s="1">
         <v>0.41880144879815601</v>
       </c>
-      <c r="K46">
+      <c r="J46">
         <v>8.9894530291881297E-2</v>
       </c>
-      <c r="L46" s="1">
+      <c r="K46" s="1">
         <v>0.46467547386559499</v>
       </c>
-      <c r="M46">
+      <c r="L46">
         <v>0.134461570286351</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>0.105797827546876</v>
@@ -2564,27 +2428,24 @@
         <v>0.66311165006468398</v>
       </c>
       <c r="H47">
-        <v>4.0638580286197403E-3</v>
-      </c>
-      <c r="I47">
         <v>6.6285149476161001E-2</v>
       </c>
-      <c r="J47" s="1">
+      <c r="I47" s="1">
         <v>0.17339479749753001</v>
       </c>
-      <c r="K47">
+      <c r="J47">
         <v>1.7905322541084099E-2</v>
       </c>
-      <c r="L47" s="1">
+      <c r="K47" s="1">
         <v>0.20176143978556399</v>
       </c>
-      <c r="M47">
+      <c r="L47">
         <v>0.10132593511820399</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>8.0267772436068294E-2</v>
@@ -2605,27 +2466,24 @@
         <v>0.49405895362621999</v>
       </c>
       <c r="H48">
-        <v>8.1326001084346697E-4</v>
-      </c>
-      <c r="I48">
         <v>1.1922229973081001E-2</v>
       </c>
-      <c r="J48" s="1">
+      <c r="I48" s="1">
         <v>1</v>
       </c>
-      <c r="K48">
+      <c r="J48">
         <v>0.54010301692420903</v>
       </c>
-      <c r="L48" s="1">
+      <c r="K48" s="1">
         <v>1</v>
       </c>
-      <c r="M48">
+      <c r="L48">
         <v>0.12744887308948299</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>4.8480455383697003E-2</v>
@@ -2646,27 +2504,24 @@
         <v>0.27041209271734601</v>
       </c>
       <c r="H49">
-        <v>-3.4870916432154699E-3</v>
-      </c>
-      <c r="I49">
         <v>5.75993282265136E-3</v>
       </c>
-      <c r="J49" s="1">
+      <c r="I49" s="1">
         <v>0.18136318735594301</v>
       </c>
-      <c r="K49">
+      <c r="J49">
         <v>3.6791758646062902E-4</v>
       </c>
-      <c r="L49" s="1">
+      <c r="K49" s="1">
         <v>0.21646563277809699</v>
       </c>
-      <c r="M49">
+      <c r="L49">
         <v>0.112926393196653</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>4.52292375094605E-2</v>
@@ -2687,27 +2542,24 @@
         <v>0.51699212542872497</v>
       </c>
       <c r="H50">
-        <v>1.25422619696804E-3</v>
-      </c>
-      <c r="I50">
         <v>1.21704275339659E-2</v>
       </c>
-      <c r="J50" s="1">
+      <c r="I50" s="1">
         <v>3.9512676983865701E-2</v>
       </c>
-      <c r="K50">
+      <c r="J50">
         <v>0</v>
       </c>
-      <c r="L50" s="1">
+      <c r="K50" s="1">
         <v>5.1656136320122503E-2</v>
       </c>
-      <c r="M50">
+      <c r="L50">
         <v>6.0993366205458699E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>2.7374188527997799E-2</v>
@@ -2728,27 +2580,24 @@
         <v>0.439946351508188</v>
       </c>
       <c r="H51">
-        <v>-2.27233994205533E-4</v>
-      </c>
-      <c r="I51">
         <v>4.3016901488529297E-2</v>
       </c>
-      <c r="J51" s="1">
+      <c r="I51" s="1">
         <v>0.32821863681264402</v>
       </c>
-      <c r="K51">
+      <c r="J51">
         <v>0.12251655629139099</v>
       </c>
-      <c r="L51" s="1">
+      <c r="K51" s="1">
         <v>0.34914799923415701</v>
       </c>
-      <c r="M51">
+      <c r="L51">
         <v>6.3931402612418003E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>6.0803104113590099E-2</v>
@@ -2769,27 +2618,24 @@
         <v>0.501700668782876</v>
       </c>
       <c r="H52">
-        <v>9.6019729527582905E-4</v>
-      </c>
-      <c r="I52">
         <v>4.16381476370936E-2</v>
       </c>
-      <c r="J52" s="1">
+      <c r="I52" s="1">
         <v>0.32304906157392199</v>
       </c>
-      <c r="K52">
+      <c r="J52">
         <v>0.14471425067451599</v>
       </c>
-      <c r="L52" s="1">
+      <c r="K52" s="1">
         <v>0.33620524602718799</v>
       </c>
-      <c r="M52">
+      <c r="L52">
         <v>4.0393879365390198E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>0.193793904765966</v>
@@ -2810,27 +2656,24 @@
         <v>0.605864184570852</v>
       </c>
       <c r="H53">
-        <v>2.9630858920173301E-3</v>
-      </c>
-      <c r="I53">
         <v>0.54413215044052299</v>
       </c>
-      <c r="J53" s="1">
+      <c r="I53" s="1">
         <v>0.39878169245966399</v>
       </c>
-      <c r="K53">
+      <c r="J53">
         <v>0.12644101054697099</v>
       </c>
-      <c r="L53" s="1">
+      <c r="K53" s="1">
         <v>0.42998276852383699</v>
       </c>
-      <c r="M53">
+      <c r="L53">
         <v>0.143518181553034</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>6.23274456087239E-2</v>
@@ -2851,27 +2694,24 @@
         <v>6.9115422885419803E-2</v>
       </c>
       <c r="H54">
-        <v>-7.3576868465212303E-3</v>
-      </c>
-      <c r="I54">
         <v>3.0480191210526201E-2</v>
       </c>
-      <c r="J54" s="1">
+      <c r="I54" s="1">
         <v>0.43562726374711902</v>
       </c>
-      <c r="K54">
+      <c r="J54">
         <v>0.28930586215354398</v>
       </c>
-      <c r="L54" s="1">
+      <c r="K54" s="1">
         <v>0.42197970515029698</v>
       </c>
-      <c r="M54">
+      <c r="L54">
         <v>0.146638519678051</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>7.4841969491850596E-2</v>
@@ -2892,27 +2732,24 @@
         <v>0.39883623719748501</v>
       </c>
       <c r="H55">
-        <v>-1.01771210490263E-3</v>
+        <v>1.97770814153603E-2</v>
       </c>
       <c r="I55">
-        <v>1.97770814153603E-2</v>
+        <v>6.1738557787290101E-2</v>
       </c>
       <c r="J55">
-        <v>6.1738557787290101E-2</v>
+        <v>2.3056168751533001E-2</v>
       </c>
       <c r="K55">
-        <v>2.3056168751533001E-2</v>
+        <v>7.0304422745548503E-2</v>
       </c>
       <c r="L55">
-        <v>7.0304422745548503E-2</v>
-      </c>
-      <c r="M55">
         <v>6.7169336168977301E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>8.7004722260715706E-2</v>
@@ -2933,27 +2770,24 @@
         <v>0.48706474026429197</v>
       </c>
       <c r="H56">
-        <v>6.7877309304110003E-4</v>
-      </c>
-      <c r="I56">
         <v>4.0132561551901702E-2</v>
       </c>
-      <c r="J56" s="1">
+      <c r="I56" s="1">
         <v>0.50306223246625004</v>
       </c>
-      <c r="K56">
+      <c r="J56">
         <v>7.8979641893549196E-2</v>
       </c>
-      <c r="L56" s="1">
+      <c r="K56" s="1">
         <v>0.56607313804326997</v>
       </c>
-      <c r="M56">
+      <c r="L56">
         <v>6.6630267845292204E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0.121297076035859</v>
@@ -2974,27 +2808,24 @@
         <v>0.44463877706497701</v>
       </c>
       <c r="H57">
-        <v>-1.3700657083513701E-4</v>
-      </c>
-      <c r="I57">
         <v>7.5210421236089495E-2</v>
       </c>
-      <c r="J57" s="1">
+      <c r="I57" s="1">
         <v>0.39120842937109002</v>
       </c>
-      <c r="K57">
+      <c r="J57">
         <v>0.211920529801325</v>
       </c>
-      <c r="L57" s="1">
+      <c r="K57" s="1">
         <v>0.39448592762779999</v>
       </c>
-      <c r="M57">
+      <c r="L57">
         <v>0.182391202716677</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>0.10839880184626501</v>
@@ -3015,27 +2846,24 @@
         <v>0.53722448644680498</v>
       </c>
       <c r="H58">
-        <v>1.6432603502579001E-3</v>
-      </c>
-      <c r="I58">
         <v>2.8130514742060402E-2</v>
       </c>
-      <c r="J58" s="1">
+      <c r="I58" s="1">
         <v>0.33401382943694402</v>
       </c>
-      <c r="K58">
+      <c r="J58">
         <v>0.113195977434388</v>
       </c>
-      <c r="L58" s="1">
+      <c r="K58" s="1">
         <v>0.35879762588550601</v>
       </c>
-      <c r="M58">
+      <c r="L58">
         <v>5.3797925560232399E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>5.08682350683822E-2</v>
@@ -3056,27 +2884,24 @@
         <v>0.32281921957090298</v>
       </c>
       <c r="H59">
-        <v>-2.4793910489245398E-3</v>
-      </c>
-      <c r="I59">
         <v>2.3923183401596802E-2</v>
       </c>
-      <c r="J59" s="1">
+      <c r="I59" s="1">
         <v>0.15314455054329901</v>
       </c>
-      <c r="K59">
+      <c r="J59">
         <v>0.11687515329899401</v>
       </c>
-      <c r="L59" s="1">
+      <c r="K59" s="1">
         <v>0.14730997511009</v>
       </c>
-      <c r="M59">
+      <c r="L59">
         <v>5.8901268452480303E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>6.9469465201309005E-2</v>
@@ -3097,27 +2922,24 @@
         <v>0.259337835262204</v>
       </c>
       <c r="H60">
-        <v>-3.7000309224486301E-3</v>
-      </c>
-      <c r="I60">
         <v>3.7528127234598099E-2</v>
       </c>
-      <c r="J60" s="1">
+      <c r="I60" s="1">
         <v>0.40306223246625</v>
       </c>
+      <c r="J60">
+        <v>0.16237429482462601</v>
+      </c>
       <c r="K60">
-        <v>0.16237429482462601</v>
+        <v>0.42374114493586101</v>
       </c>
       <c r="L60">
-        <v>0.42374114493586101</v>
-      </c>
-      <c r="M60">
         <v>5.1837401960421303E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>0.59251047318544703</v>
@@ -3138,27 +2960,24 @@
         <v>0.75911385764540695</v>
       </c>
       <c r="H61">
-        <v>5.9098184435583904E-3</v>
-      </c>
-      <c r="I61">
         <v>0.377183755852324</v>
       </c>
-      <c r="J61" s="1">
+      <c r="I61" s="1">
         <v>0.21995390187685199</v>
       </c>
-      <c r="K61">
+      <c r="J61">
         <v>0.25091979396615199</v>
       </c>
-      <c r="L61" s="1">
+      <c r="K61" s="1">
         <v>0.183151445529389</v>
       </c>
-      <c r="M61">
+      <c r="L61">
         <v>0.45497739273458598</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>3.2298984127660899E-2</v>
@@ -3179,27 +2998,24 @@
         <v>0.21232957358483201</v>
       </c>
       <c r="H62">
-        <v>-4.6039204518486896E-3</v>
-      </c>
-      <c r="I62">
         <v>1.44752753680868E-2</v>
       </c>
-      <c r="J62" s="1">
+      <c r="I62" s="1">
         <v>7.2703325650312803E-2</v>
       </c>
-      <c r="K62">
+      <c r="J62">
         <v>3.2867304390483201E-2</v>
       </c>
-      <c r="L62" s="1">
+      <c r="K62" s="1">
         <v>7.9992341566149705E-2</v>
       </c>
-      <c r="M62">
+      <c r="L62">
         <v>4.71979736951166E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63">
         <v>6.0547270575945299E-2</v>
@@ -3220,21 +3036,18 @@
         <v>0.63012875873666796</v>
       </c>
       <c r="H63">
-        <v>3.4296526983876698E-3</v>
-      </c>
-      <c r="I63">
         <v>7.9324815163886904E-3</v>
       </c>
-      <c r="J63" s="1">
+      <c r="I63" s="1">
         <v>0.33342113928218597</v>
       </c>
-      <c r="K63">
+      <c r="J63">
         <v>2.4773117488349299E-2</v>
       </c>
-      <c r="L63" s="1">
+      <c r="K63" s="1">
         <v>0.38571702086923199</v>
       </c>
-      <c r="M63">
+      <c r="L63">
         <v>5.9338292097143502E-2</v>
       </c>
     </row>

--- a/Data/NormalizedMasterData.xlsx
+++ b/Data/NormalizedMasterData.xlsx
@@ -641,7 +641,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G2" sqref="G2:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -715,7 +715,7 @@
         <v>0.118192046053329</v>
       </c>
       <c r="G2">
-        <v>0.39631564860249402</v>
+        <v>0.59907907621908796</v>
       </c>
       <c r="H2">
         <v>0.13556725716547499</v>
@@ -753,7 +753,7 @@
         <v>1.7400148426411001E-2</v>
       </c>
       <c r="G3">
-        <v>0.26796493314898201</v>
+        <v>0.728249868929985</v>
       </c>
       <c r="H3">
         <v>1.7435058616172901E-2</v>
@@ -791,7 +791,7 @@
         <v>0.54876986469144595</v>
       </c>
       <c r="G4">
-        <v>0.63333526982673205</v>
+        <v>0.36221503398666599</v>
       </c>
       <c r="H4">
         <v>0.52612087986582001</v>
@@ -829,7 +829,7 @@
         <v>7.6839150393298403E-2</v>
       </c>
       <c r="G5">
-        <v>0.104738136404356</v>
+        <v>0.89344675033690202</v>
       </c>
       <c r="H5">
         <v>8.7366634812824098E-2</v>
@@ -867,7 +867,7 @@
         <v>2.9684886615197401E-2</v>
       </c>
       <c r="G6">
-        <v>0.180875835747284</v>
+        <v>0.81626038535857404</v>
       </c>
       <c r="H6">
         <v>3.2802533145854899E-2</v>
@@ -905,7 +905,7 @@
         <v>2.9647700893881399E-2</v>
       </c>
       <c r="G7">
-        <v>0.28338620247802498</v>
+        <v>0.71269625793873004</v>
       </c>
       <c r="H7">
         <v>3.1908147221608701E-2</v>
@@ -943,7 +943,7 @@
         <v>5.12589344629353E-2</v>
       </c>
       <c r="G8">
-        <v>0.28009692782505802</v>
+        <v>0.716012983901123</v>
       </c>
       <c r="H8">
         <v>5.68361480613256E-2</v>
@@ -981,7 +981,7 @@
         <v>3.3248386377050597E-2</v>
       </c>
       <c r="G9">
-        <v>0.45761865535496599</v>
+        <v>0.53760934129100102</v>
       </c>
       <c r="H9">
         <v>3.6300260006079201E-2</v>
@@ -1019,7 +1019,7 @@
         <v>1.7930242751553499E-2</v>
       </c>
       <c r="G10">
-        <v>0.16487921189360499</v>
+        <v>0.83245847765728198</v>
       </c>
       <c r="H10">
         <v>1.98711122093519E-2</v>
@@ -1057,7 +1057,7 @@
         <v>3.05207741592467E-2</v>
       </c>
       <c r="G11">
-        <v>0.32640562163328302</v>
+        <v>0.66935653063461198</v>
       </c>
       <c r="H11">
         <v>3.2057940463200103E-2</v>
@@ -1095,7 +1095,7 @@
         <v>2.2848252191979598E-2</v>
       </c>
       <c r="G12">
-        <v>6.3901080104923305E-2</v>
+        <v>0.93494008332546696</v>
       </c>
       <c r="H12">
         <v>2.58519080597511E-2</v>
@@ -1133,7 +1133,7 @@
         <v>1.7631570202685899E-2</v>
       </c>
       <c r="G13">
-        <v>0.492885169879826</v>
+        <v>0.50231252257127901</v>
       </c>
       <c r="H13">
         <v>1.7941294169872099E-2</v>
@@ -1171,7 +1171,7 @@
         <v>1.6917920827643401E-2</v>
       </c>
       <c r="G14">
-        <v>0.14304828977151299</v>
+        <v>0.85458052285530095</v>
       </c>
       <c r="H14">
         <v>1.9282873056241299E-2</v>
@@ -1209,7 +1209,7 @@
         <v>0.115990176640088</v>
       </c>
       <c r="G15">
-        <v>0.49717873006734598</v>
+        <v>0.49801853891834102</v>
       </c>
       <c r="H15">
         <v>0.11557368624766801</v>
@@ -1247,7 +1247,7 @@
         <v>0.36126917240408102</v>
       </c>
       <c r="G16">
-        <v>0.41083802830958499</v>
+        <v>0.58450409052408103</v>
       </c>
       <c r="H16">
         <v>0.41647113363962601</v>
@@ -1285,7 +1285,7 @@
         <v>1.3603644517163199E-2</v>
       </c>
       <c r="G17">
-        <v>0.27318795207139202</v>
+        <v>0.72298099074517097</v>
       </c>
       <c r="H17">
         <v>1.53073385567804E-2</v>
@@ -1323,7 +1323,7 @@
         <v>1.8497127205232E-2</v>
       </c>
       <c r="G18">
-        <v>0.393317142007923</v>
+        <v>0.60208945961673699</v>
       </c>
       <c r="H18">
         <v>1.8360059217532601E-2</v>
@@ -1361,7 +1361,7 @@
         <v>1.9932733403696098E-2</v>
       </c>
       <c r="G19">
-        <v>0.17893798251787099</v>
+        <v>0.81822211150722501</v>
       </c>
       <c r="H19">
         <v>2.2186893856727698E-2</v>
@@ -1399,7 +1399,7 @@
         <v>2.1836721453629401E-2</v>
       </c>
       <c r="G20">
-        <v>0.37645480649059299</v>
+        <v>0.61902505970899802</v>
       </c>
       <c r="H20">
         <v>2.3470523532846298E-2</v>
@@ -1437,7 +1437,7 @@
         <v>1.74697727556835E-2</v>
       </c>
       <c r="G21">
-        <v>0.23383545254004401</v>
+        <v>0.76270517548081596</v>
       </c>
       <c r="H21">
         <v>1.920086945683E-2</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>2.34851565677105E-2</v>
       </c>
       <c r="G23">
-        <v>0.192863996948475</v>
+        <v>0.80412780479316404</v>
       </c>
       <c r="H23">
         <v>2.6308941453803501E-2</v>
@@ -1551,7 +1551,7 @@
         <v>4.4748268490402102E-2</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>4.5035283415373398E-2</v>
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.95202826457381995</v>
+        <v>4.7101936596249297E-2</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>8.8134115446632192E-3</v>
       </c>
       <c r="G26">
-        <v>0.39611321555318202</v>
+        <v>0.59928230014832196</v>
       </c>
       <c r="H26">
         <v>9.0225826978965508E-3</v>
@@ -1665,7 +1665,7 @@
         <v>2.3845145997471399E-2</v>
       </c>
       <c r="G27">
-        <v>0.22972767211964601</v>
+        <v>0.766855233995409</v>
       </c>
       <c r="H27">
         <v>2.4215116215501101E-2</v>
@@ -1703,7 +1703,7 @@
         <v>2.7126588107215101E-2</v>
       </c>
       <c r="G28">
-        <v>0.38167993578368598</v>
+        <v>0.61377605207388297</v>
       </c>
       <c r="H28">
         <v>2.7872476749246099E-2</v>
@@ -1741,7 +1741,7 @@
         <v>0.293067790361145</v>
       </c>
       <c r="G29">
-        <v>0.52090740586051298</v>
+        <v>0.47430029258811901</v>
       </c>
       <c r="H29">
         <v>0.32600257600640298</v>
@@ -1779,7 +1779,7 @@
         <v>1.78503330100022E-2</v>
       </c>
       <c r="G30">
-        <v>9.5809277736552803E-2</v>
+        <v>0.90251349665454705</v>
       </c>
       <c r="H30">
         <v>1.9691797671972499E-2</v>
@@ -1817,7 +1817,7 @@
         <v>0.52995309852000805</v>
       </c>
       <c r="G31">
-        <v>0.58373588380335795</v>
+        <v>0.41160368756543197</v>
       </c>
       <c r="H31">
         <v>0.48793891059858302</v>
@@ -1855,7 +1855,7 @@
         <v>0.63182298647230895</v>
       </c>
       <c r="G32">
-        <v>0.92570994095620696</v>
+        <v>7.2979649895147505E-2</v>
       </c>
       <c r="H32">
         <v>0.83270172338764503</v>
@@ -1893,7 +1893,7 @@
         <v>8.3556315796969094E-2</v>
       </c>
       <c r="G33">
-        <v>0.32423436569436798</v>
+        <v>0.67154223070096797</v>
       </c>
       <c r="H33">
         <v>9.6539010752311999E-2</v>
@@ -1931,7 +1931,7 @@
         <v>9.0786169443464307E-2</v>
       </c>
       <c r="G34">
-        <v>0.32267187641412598</v>
+        <v>0.67311522753526998</v>
       </c>
       <c r="H34">
         <v>9.9241849388909203E-2</v>
@@ -1969,7 +1969,7 @@
         <v>0.182829928334412</v>
       </c>
       <c r="G35">
-        <v>0.419152260083344</v>
+        <v>0.57616340759071805</v>
       </c>
       <c r="H35">
         <v>0.202739138896603</v>
@@ -2007,7 +2007,7 @@
         <v>4.1035630250505203E-2</v>
       </c>
       <c r="G36">
-        <v>0.65864554312978496</v>
+        <v>0.33704845404688699</v>
       </c>
       <c r="H36">
         <v>4.4562942682764201E-2</v>
@@ -2045,7 +2045,7 @@
         <v>0.146400580413727</v>
       </c>
       <c r="G37">
-        <v>0.63567674186671197</v>
+        <v>0.35988583050586198</v>
       </c>
       <c r="H37">
         <v>0.135210814853367</v>
@@ -2083,7 +2083,7 @@
         <v>1.4964879272995399E-2</v>
       </c>
       <c r="G38">
-        <v>0.161766406514122</v>
+        <v>0.83561165173817298</v>
       </c>
       <c r="H38">
         <v>1.5150985027236099E-2</v>
@@ -2121,7 +2121,7 @@
         <v>4.6456438114256697E-2</v>
       </c>
       <c r="G39">
-        <v>0.478157722760922</v>
+        <v>0.51704680647210599</v>
       </c>
       <c r="H39">
         <v>4.82596649442266E-2</v>
@@ -2159,7 +2159,7 @@
         <v>2.2597841962266801E-2</v>
       </c>
       <c r="G40">
-        <v>0.19267938930336201</v>
+        <v>0.80431459375951697</v>
       </c>
       <c r="H40">
         <v>2.4445819675178299E-2</v>
@@ -2197,7 +2197,7 @@
         <v>3.7636697085114197E-2</v>
       </c>
       <c r="G41">
-        <v>0.56389452340157997</v>
+        <v>0.43138707159797102</v>
       </c>
       <c r="H41">
         <v>3.5839946468050297E-2</v>
@@ -2235,7 +2235,7 @@
         <v>0.88733636304657104</v>
       </c>
       <c r="G42">
-        <v>0.77659967030031696</v>
+        <v>0.22008506666894201</v>
       </c>
       <c r="H42">
         <v>0.85049213093460097</v>
@@ -2273,7 +2273,7 @@
         <v>6.1159434966920501E-2</v>
       </c>
       <c r="G43">
-        <v>0.428934786755998</v>
+        <v>0.56635317483502001</v>
       </c>
       <c r="H43">
         <v>6.8270729963240503E-2</v>
@@ -2311,7 +2311,7 @@
         <v>0.184217272213721</v>
       </c>
       <c r="G44">
-        <v>0.57075842507149999</v>
+        <v>0.42454152234120002</v>
       </c>
       <c r="H44">
         <v>0.178498874910616</v>
@@ -2349,7 +2349,7 @@
         <v>0.122778153151371</v>
       </c>
       <c r="G45">
-        <v>0.89075522627940995</v>
+        <v>0.107389321854688</v>
       </c>
       <c r="H45">
         <v>0.10603612094546901</v>
@@ -2387,7 +2387,7 @@
         <v>4.2287681399069299E-2</v>
       </c>
       <c r="G46">
-        <v>0.34627953288943097</v>
+        <v>0.64935890723895096</v>
       </c>
       <c r="H46">
         <v>9.4067968956717402E-2</v>
@@ -2425,7 +2425,7 @@
         <v>8.5483248228139894E-2</v>
       </c>
       <c r="G47">
-        <v>0.66311165006468398</v>
+        <v>0.33261023468548401</v>
       </c>
       <c r="H47">
         <v>6.6285149476161001E-2</v>
@@ -2463,7 +2463,7 @@
         <v>5.9443749080246799E-2</v>
       </c>
       <c r="G48">
-        <v>0.49405895362621999</v>
+        <v>0.50113855269419405</v>
       </c>
       <c r="H48">
         <v>1.1922229973081001E-2</v>
@@ -2501,7 +2501,7 @@
         <v>1.09915453911068E-2</v>
       </c>
       <c r="G49">
-        <v>0.27041209271734601</v>
+        <v>0.72578109053356799</v>
       </c>
       <c r="H49">
         <v>5.75993282265136E-3</v>
@@ -2539,7 +2539,7 @@
         <v>5.3674028384573204E-3</v>
       </c>
       <c r="G50">
-        <v>0.51699212542872497</v>
+        <v>0.47821236302402098</v>
       </c>
       <c r="H50">
         <v>1.21704275339659E-2</v>
@@ -2577,7 +2577,7 @@
         <v>1.2027998474594201E-2</v>
       </c>
       <c r="G51">
-        <v>0.439946351508188</v>
+        <v>0.55531483940201898</v>
       </c>
       <c r="H51">
         <v>4.3016901488529297E-2</v>
@@ -2615,7 +2615,7 @@
         <v>3.7280663583152802E-2</v>
       </c>
       <c r="G52">
-        <v>0.501700668782876</v>
+        <v>0.49349692005411799</v>
       </c>
       <c r="H52">
         <v>4.16381476370936E-2</v>
@@ -2653,7 +2653,7 @@
         <v>0.59102471188977801</v>
       </c>
       <c r="G53">
-        <v>0.605864184570852</v>
+        <v>0.38955779847956101</v>
       </c>
       <c r="H53">
         <v>0.54413215044052299</v>
@@ -2691,7 +2691,7 @@
         <v>2.8525008584363298E-2</v>
       </c>
       <c r="G54">
-        <v>6.9115422885419803E-2</v>
+        <v>0.92963828690128203</v>
       </c>
       <c r="H54">
         <v>3.0480191210526201E-2</v>
@@ -2729,7 +2729,7 @@
         <v>1.8296166073013799E-2</v>
       </c>
       <c r="G55">
-        <v>0.39883623719748501</v>
+        <v>0.59654877263457295</v>
       </c>
       <c r="H55">
         <v>1.97770814153603E-2</v>
@@ -2767,7 +2767,7 @@
         <v>3.8344808161237302E-2</v>
       </c>
       <c r="G56">
-        <v>0.48706474026429197</v>
+        <v>0.50813465751590603</v>
       </c>
       <c r="H56">
         <v>4.0132561551901702E-2</v>
@@ -2805,7 +2805,7 @@
         <v>7.0279035323270497E-2</v>
       </c>
       <c r="G57">
-        <v>0.44463877706497701</v>
+        <v>0.55061242646095998</v>
       </c>
       <c r="H57">
         <v>7.5210421236089495E-2</v>
@@ -2843,7 +2843,7 @@
         <v>2.4146192103018702E-2</v>
       </c>
       <c r="G58">
-        <v>0.53722448644680498</v>
+        <v>0.45800292207377202</v>
       </c>
       <c r="H58">
         <v>2.8130514742060402E-2</v>
@@ -2881,7 +2881,7 @@
         <v>2.3091541751653202E-2</v>
       </c>
       <c r="G59">
-        <v>0.32281921957090298</v>
+        <v>0.672966889467005</v>
       </c>
       <c r="H59">
         <v>2.3923183401596802E-2</v>
@@ -2919,7 +2919,7 @@
         <v>3.5066530793733203E-2</v>
       </c>
       <c r="G60">
-        <v>0.259337835262204</v>
+        <v>0.73695504094631703</v>
       </c>
       <c r="H60">
         <v>3.7528127234598099E-2</v>
@@ -2957,7 +2957,7 @@
         <v>0.37625066657383399</v>
       </c>
       <c r="G61">
-        <v>0.75911385764540695</v>
+        <v>0.23739071039343801</v>
       </c>
       <c r="H61">
         <v>0.377183755852324</v>
@@ -2995,7 +2995,7 @@
         <v>1.46966673681845E-2</v>
       </c>
       <c r="G62">
-        <v>0.21232957358483201</v>
+        <v>0.78443969938327796</v>
       </c>
       <c r="H62">
         <v>1.44752753680868E-2</v>
@@ -3033,7 +3033,7 @@
         <v>8.1733424266927004E-3</v>
       </c>
       <c r="G63">
-        <v>0.63012875873666796</v>
+        <v>0.36540508310158398</v>
       </c>
       <c r="H63">
         <v>7.9324815163886904E-3</v>

--- a/Data/NormalizedMasterData.xlsx
+++ b/Data/NormalizedMasterData.xlsx
@@ -715,7 +715,7 @@
         <v>0.118192046053329</v>
       </c>
       <c r="G2">
-        <v>0.59907907621908796</v>
+        <v>0.39631564860249402</v>
       </c>
       <c r="H2">
         <v>0.13556725716547499</v>
@@ -753,7 +753,7 @@
         <v>1.7400148426411001E-2</v>
       </c>
       <c r="G3">
-        <v>0.728249868929985</v>
+        <v>0.26796493314898201</v>
       </c>
       <c r="H3">
         <v>1.7435058616172901E-2</v>
@@ -791,7 +791,7 @@
         <v>0.54876986469144595</v>
       </c>
       <c r="G4">
-        <v>0.36221503398666599</v>
+        <v>0.63333526982673205</v>
       </c>
       <c r="H4">
         <v>0.52612087986582001</v>
@@ -829,7 +829,7 @@
         <v>7.6839150393298403E-2</v>
       </c>
       <c r="G5">
-        <v>0.89344675033690202</v>
+        <v>0.104738136404356</v>
       </c>
       <c r="H5">
         <v>8.7366634812824098E-2</v>
@@ -867,7 +867,7 @@
         <v>2.9684886615197401E-2</v>
       </c>
       <c r="G6">
-        <v>0.81626038535857404</v>
+        <v>0.180875835747284</v>
       </c>
       <c r="H6">
         <v>3.2802533145854899E-2</v>
@@ -905,7 +905,7 @@
         <v>2.9647700893881399E-2</v>
       </c>
       <c r="G7">
-        <v>0.71269625793873004</v>
+        <v>0.28338620247802498</v>
       </c>
       <c r="H7">
         <v>3.1908147221608701E-2</v>
@@ -943,7 +943,7 @@
         <v>5.12589344629353E-2</v>
       </c>
       <c r="G8">
-        <v>0.716012983901123</v>
+        <v>0.28009692782505802</v>
       </c>
       <c r="H8">
         <v>5.68361480613256E-2</v>
@@ -981,7 +981,7 @@
         <v>3.3248386377050597E-2</v>
       </c>
       <c r="G9">
-        <v>0.53760934129100102</v>
+        <v>0.45761865535496599</v>
       </c>
       <c r="H9">
         <v>3.6300260006079201E-2</v>
@@ -1019,7 +1019,7 @@
         <v>1.7930242751553499E-2</v>
       </c>
       <c r="G10">
-        <v>0.83245847765728198</v>
+        <v>0.16487921189360499</v>
       </c>
       <c r="H10">
         <v>1.98711122093519E-2</v>
@@ -1057,7 +1057,7 @@
         <v>3.05207741592467E-2</v>
       </c>
       <c r="G11">
-        <v>0.66935653063461198</v>
+        <v>0.32640562163328302</v>
       </c>
       <c r="H11">
         <v>3.2057940463200103E-2</v>
@@ -1095,7 +1095,7 @@
         <v>2.2848252191979598E-2</v>
       </c>
       <c r="G12">
-        <v>0.93494008332546696</v>
+        <v>6.3901080104923305E-2</v>
       </c>
       <c r="H12">
         <v>2.58519080597511E-2</v>
@@ -1133,7 +1133,7 @@
         <v>1.7631570202685899E-2</v>
       </c>
       <c r="G13">
-        <v>0.50231252257127901</v>
+        <v>0.492885169879826</v>
       </c>
       <c r="H13">
         <v>1.7941294169872099E-2</v>
@@ -1171,7 +1171,7 @@
         <v>1.6917920827643401E-2</v>
       </c>
       <c r="G14">
-        <v>0.85458052285530095</v>
+        <v>0.14304828977151299</v>
       </c>
       <c r="H14">
         <v>1.9282873056241299E-2</v>
@@ -1209,7 +1209,7 @@
         <v>0.115990176640088</v>
       </c>
       <c r="G15">
-        <v>0.49801853891834102</v>
+        <v>0.49717873006734598</v>
       </c>
       <c r="H15">
         <v>0.11557368624766801</v>
@@ -1247,7 +1247,7 @@
         <v>0.36126917240408102</v>
       </c>
       <c r="G16">
-        <v>0.58450409052408103</v>
+        <v>0.41083802830958499</v>
       </c>
       <c r="H16">
         <v>0.41647113363962601</v>
@@ -1285,7 +1285,7 @@
         <v>1.3603644517163199E-2</v>
       </c>
       <c r="G17">
-        <v>0.72298099074517097</v>
+        <v>0.27318795207139202</v>
       </c>
       <c r="H17">
         <v>1.53073385567804E-2</v>
@@ -1323,7 +1323,7 @@
         <v>1.8497127205232E-2</v>
       </c>
       <c r="G18">
-        <v>0.60208945961673699</v>
+        <v>0.393317142007923</v>
       </c>
       <c r="H18">
         <v>1.8360059217532601E-2</v>
@@ -1361,7 +1361,7 @@
         <v>1.9932733403696098E-2</v>
       </c>
       <c r="G19">
-        <v>0.81822211150722501</v>
+        <v>0.17893798251787099</v>
       </c>
       <c r="H19">
         <v>2.2186893856727698E-2</v>
@@ -1399,7 +1399,7 @@
         <v>2.1836721453629401E-2</v>
       </c>
       <c r="G20">
-        <v>0.61902505970899802</v>
+        <v>0.37645480649059299</v>
       </c>
       <c r="H20">
         <v>2.3470523532846298E-2</v>
@@ -1437,7 +1437,7 @@
         <v>1.74697727556835E-2</v>
       </c>
       <c r="G21">
-        <v>0.76270517548081596</v>
+        <v>0.23383545254004401</v>
       </c>
       <c r="H21">
         <v>1.920086945683E-2</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>2.34851565677105E-2</v>
       </c>
       <c r="G23">
-        <v>0.80412780479316404</v>
+        <v>0.192863996948475</v>
       </c>
       <c r="H23">
         <v>2.6308941453803501E-2</v>
@@ -1551,7 +1551,7 @@
         <v>4.4748268490402102E-2</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>4.5035283415373398E-2</v>
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.7101936596249297E-2</v>
+        <v>0.95202826457381995</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>8.8134115446632192E-3</v>
       </c>
       <c r="G26">
-        <v>0.59928230014832196</v>
+        <v>0.39611321555318202</v>
       </c>
       <c r="H26">
         <v>9.0225826978965508E-3</v>
@@ -1665,7 +1665,7 @@
         <v>2.3845145997471399E-2</v>
       </c>
       <c r="G27">
-        <v>0.766855233995409</v>
+        <v>0.22972767211964601</v>
       </c>
       <c r="H27">
         <v>2.4215116215501101E-2</v>
@@ -1703,7 +1703,7 @@
         <v>2.7126588107215101E-2</v>
       </c>
       <c r="G28">
-        <v>0.61377605207388297</v>
+        <v>0.38167993578368598</v>
       </c>
       <c r="H28">
         <v>2.7872476749246099E-2</v>
@@ -1741,7 +1741,7 @@
         <v>0.293067790361145</v>
       </c>
       <c r="G29">
-        <v>0.47430029258811901</v>
+        <v>0.52090740586051298</v>
       </c>
       <c r="H29">
         <v>0.32600257600640298</v>
@@ -1779,7 +1779,7 @@
         <v>1.78503330100022E-2</v>
       </c>
       <c r="G30">
-        <v>0.90251349665454705</v>
+        <v>9.5809277736552803E-2</v>
       </c>
       <c r="H30">
         <v>1.9691797671972499E-2</v>
@@ -1817,7 +1817,7 @@
         <v>0.52995309852000805</v>
       </c>
       <c r="G31">
-        <v>0.41160368756543197</v>
+        <v>0.58373588380335795</v>
       </c>
       <c r="H31">
         <v>0.48793891059858302</v>
@@ -1855,7 +1855,7 @@
         <v>0.63182298647230895</v>
       </c>
       <c r="G32">
-        <v>7.2979649895147505E-2</v>
+        <v>0.92570994095620696</v>
       </c>
       <c r="H32">
         <v>0.83270172338764503</v>
@@ -1893,7 +1893,7 @@
         <v>8.3556315796969094E-2</v>
       </c>
       <c r="G33">
-        <v>0.67154223070096797</v>
+        <v>0.32423436569436798</v>
       </c>
       <c r="H33">
         <v>9.6539010752311999E-2</v>
@@ -1931,7 +1931,7 @@
         <v>9.0786169443464307E-2</v>
       </c>
       <c r="G34">
-        <v>0.67311522753526998</v>
+        <v>0.32267187641412598</v>
       </c>
       <c r="H34">
         <v>9.9241849388909203E-2</v>
@@ -1969,7 +1969,7 @@
         <v>0.182829928334412</v>
       </c>
       <c r="G35">
-        <v>0.57616340759071805</v>
+        <v>0.419152260083344</v>
       </c>
       <c r="H35">
         <v>0.202739138896603</v>
@@ -2007,7 +2007,7 @@
         <v>4.1035630250505203E-2</v>
       </c>
       <c r="G36">
-        <v>0.33704845404688699</v>
+        <v>0.65864554312978496</v>
       </c>
       <c r="H36">
         <v>4.4562942682764201E-2</v>
@@ -2045,7 +2045,7 @@
         <v>0.146400580413727</v>
       </c>
       <c r="G37">
-        <v>0.35988583050586198</v>
+        <v>0.63567674186671197</v>
       </c>
       <c r="H37">
         <v>0.135210814853367</v>
@@ -2083,7 +2083,7 @@
         <v>1.4964879272995399E-2</v>
       </c>
       <c r="G38">
-        <v>0.83561165173817298</v>
+        <v>0.161766406514122</v>
       </c>
       <c r="H38">
         <v>1.5150985027236099E-2</v>
@@ -2121,7 +2121,7 @@
         <v>4.6456438114256697E-2</v>
       </c>
       <c r="G39">
-        <v>0.51704680647210599</v>
+        <v>0.478157722760922</v>
       </c>
       <c r="H39">
         <v>4.82596649442266E-2</v>
@@ -2159,7 +2159,7 @@
         <v>2.2597841962266801E-2</v>
       </c>
       <c r="G40">
-        <v>0.80431459375951697</v>
+        <v>0.19267938930336201</v>
       </c>
       <c r="H40">
         <v>2.4445819675178299E-2</v>
@@ -2197,7 +2197,7 @@
         <v>3.7636697085114197E-2</v>
       </c>
       <c r="G41">
-        <v>0.43138707159797102</v>
+        <v>0.56389452340157997</v>
       </c>
       <c r="H41">
         <v>3.5839946468050297E-2</v>
@@ -2235,7 +2235,7 @@
         <v>0.88733636304657104</v>
       </c>
       <c r="G42">
-        <v>0.22008506666894201</v>
+        <v>0.77659967030031696</v>
       </c>
       <c r="H42">
         <v>0.85049213093460097</v>
@@ -2273,7 +2273,7 @@
         <v>6.1159434966920501E-2</v>
       </c>
       <c r="G43">
-        <v>0.56635317483502001</v>
+        <v>0.428934786755998</v>
       </c>
       <c r="H43">
         <v>6.8270729963240503E-2</v>
@@ -2311,7 +2311,7 @@
         <v>0.184217272213721</v>
       </c>
       <c r="G44">
-        <v>0.42454152234120002</v>
+        <v>0.57075842507149999</v>
       </c>
       <c r="H44">
         <v>0.178498874910616</v>
@@ -2349,7 +2349,7 @@
         <v>0.122778153151371</v>
       </c>
       <c r="G45">
-        <v>0.107389321854688</v>
+        <v>0.89075522627940995</v>
       </c>
       <c r="H45">
         <v>0.10603612094546901</v>
@@ -2387,7 +2387,7 @@
         <v>4.2287681399069299E-2</v>
       </c>
       <c r="G46">
-        <v>0.64935890723895096</v>
+        <v>0.34627953288943097</v>
       </c>
       <c r="H46">
         <v>9.4067968956717402E-2</v>
@@ -2425,7 +2425,7 @@
         <v>8.5483248228139894E-2</v>
       </c>
       <c r="G47">
-        <v>0.33261023468548401</v>
+        <v>0.66311165006468398</v>
       </c>
       <c r="H47">
         <v>6.6285149476161001E-2</v>
@@ -2463,7 +2463,7 @@
         <v>5.9443749080246799E-2</v>
       </c>
       <c r="G48">
-        <v>0.50113855269419405</v>
+        <v>0.49405895362621999</v>
       </c>
       <c r="H48">
         <v>1.1922229973081001E-2</v>
@@ -2501,7 +2501,7 @@
         <v>1.09915453911068E-2</v>
       </c>
       <c r="G49">
-        <v>0.72578109053356799</v>
+        <v>0.27041209271734601</v>
       </c>
       <c r="H49">
         <v>5.75993282265136E-3</v>
@@ -2539,7 +2539,7 @@
         <v>5.3674028384573204E-3</v>
       </c>
       <c r="G50">
-        <v>0.47821236302402098</v>
+        <v>0.51699212542872497</v>
       </c>
       <c r="H50">
         <v>1.21704275339659E-2</v>
@@ -2577,7 +2577,7 @@
         <v>1.2027998474594201E-2</v>
       </c>
       <c r="G51">
-        <v>0.55531483940201898</v>
+        <v>0.439946351508188</v>
       </c>
       <c r="H51">
         <v>4.3016901488529297E-2</v>
@@ -2615,7 +2615,7 @@
         <v>3.7280663583152802E-2</v>
       </c>
       <c r="G52">
-        <v>0.49349692005411799</v>
+        <v>0.501700668782876</v>
       </c>
       <c r="H52">
         <v>4.16381476370936E-2</v>
@@ -2653,7 +2653,7 @@
         <v>0.59102471188977801</v>
       </c>
       <c r="G53">
-        <v>0.38955779847956101</v>
+        <v>0.605864184570852</v>
       </c>
       <c r="H53">
         <v>0.54413215044052299</v>
@@ -2691,7 +2691,7 @@
         <v>2.8525008584363298E-2</v>
       </c>
       <c r="G54">
-        <v>0.92963828690128203</v>
+        <v>6.9115422885419803E-2</v>
       </c>
       <c r="H54">
         <v>3.0480191210526201E-2</v>
@@ -2729,7 +2729,7 @@
         <v>1.8296166073013799E-2</v>
       </c>
       <c r="G55">
-        <v>0.59654877263457295</v>
+        <v>0.39883623719748501</v>
       </c>
       <c r="H55">
         <v>1.97770814153603E-2</v>
@@ -2767,7 +2767,7 @@
         <v>3.8344808161237302E-2</v>
       </c>
       <c r="G56">
-        <v>0.50813465751590603</v>
+        <v>0.48706474026429197</v>
       </c>
       <c r="H56">
         <v>4.0132561551901702E-2</v>
@@ -2805,7 +2805,7 @@
         <v>7.0279035323270497E-2</v>
       </c>
       <c r="G57">
-        <v>0.55061242646095998</v>
+        <v>0.44463877706497701</v>
       </c>
       <c r="H57">
         <v>7.5210421236089495E-2</v>
@@ -2843,7 +2843,7 @@
         <v>2.4146192103018702E-2</v>
       </c>
       <c r="G58">
-        <v>0.45800292207377202</v>
+        <v>0.53722448644680498</v>
       </c>
       <c r="H58">
         <v>2.8130514742060402E-2</v>
@@ -2881,7 +2881,7 @@
         <v>2.3091541751653202E-2</v>
       </c>
       <c r="G59">
-        <v>0.672966889467005</v>
+        <v>0.32281921957090298</v>
       </c>
       <c r="H59">
         <v>2.3923183401596802E-2</v>
@@ -2919,7 +2919,7 @@
         <v>3.5066530793733203E-2</v>
       </c>
       <c r="G60">
-        <v>0.73695504094631703</v>
+        <v>0.259337835262204</v>
       </c>
       <c r="H60">
         <v>3.7528127234598099E-2</v>
@@ -2957,7 +2957,7 @@
         <v>0.37625066657383399</v>
       </c>
       <c r="G61">
-        <v>0.23739071039343801</v>
+        <v>0.75911385764540695</v>
       </c>
       <c r="H61">
         <v>0.377183755852324</v>
@@ -2995,7 +2995,7 @@
         <v>1.46966673681845E-2</v>
       </c>
       <c r="G62">
-        <v>0.78443969938327796</v>
+        <v>0.21232957358483201</v>
       </c>
       <c r="H62">
         <v>1.44752753680868E-2</v>
@@ -3033,7 +3033,7 @@
         <v>8.1733424266927004E-3</v>
       </c>
       <c r="G63">
-        <v>0.36540508310158398</v>
+        <v>0.63012875873666796</v>
       </c>
       <c r="H63">
         <v>7.9324815163886904E-3</v>
